--- a/Dart_Expert_Dow_6month_anova/Dart_Expert_Dow_6month_anova.xlsx
+++ b/Dart_Expert_Dow_6month_anova/Dart_Expert_Dow_6month_anova.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="410">
   <si>
-    <t>CONTEST.PERIOD</t>
+    <t>contest_period</t>
   </si>
   <si>
     <t>variable</t>

--- a/Dart_Expert_Dow_6month_anova/Dart_Expert_Dow_6month_anova.xlsx
+++ b/Dart_Expert_Dow_6month_anova/Dart_Expert_Dow_6month_anova.xlsx
@@ -3,347 +3,344 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="107">
-  <si>
-    <t>contest_period</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>1January-June1990</t>
-  </si>
-  <si>
-    <t>2February-July1990</t>
-  </si>
-  <si>
-    <t>3March-August1990</t>
-  </si>
-  <si>
-    <t>4April-September1990</t>
-  </si>
-  <si>
-    <t>5May-October1990</t>
-  </si>
-  <si>
-    <t>6June-November1990</t>
-  </si>
-  <si>
-    <t>7July-December1990</t>
-  </si>
-  <si>
-    <t>8August1990-January1991</t>
-  </si>
-  <si>
-    <t>9September1990-February1991</t>
-  </si>
-  <si>
-    <t>10October1990-March1991</t>
-  </si>
-  <si>
-    <t>11November1990-April1991</t>
-  </si>
-  <si>
-    <t>12December1990-May1991</t>
-  </si>
-  <si>
-    <t>13January-June1991</t>
-  </si>
-  <si>
-    <t>14February-July1991</t>
-  </si>
-  <si>
-    <t>15March-August1991</t>
-  </si>
-  <si>
-    <t>16April-September1991</t>
-  </si>
-  <si>
-    <t>17May-October1991</t>
-  </si>
-  <si>
-    <t>18June-November1991</t>
-  </si>
-  <si>
-    <t>19July-December1991</t>
-  </si>
-  <si>
-    <t>20August1991-January1992</t>
-  </si>
-  <si>
-    <t>21September1991-February1992</t>
-  </si>
-  <si>
-    <t>22October1991-March1992</t>
-  </si>
-  <si>
-    <t>23November1991-April1992</t>
-  </si>
-  <si>
-    <t>24December1991-May1992</t>
-  </si>
-  <si>
-    <t>25January-June1992</t>
-  </si>
-  <si>
-    <t>26February-July1992</t>
-  </si>
-  <si>
-    <t>27March-August1992</t>
-  </si>
-  <si>
-    <t>28April-September1992</t>
-  </si>
-  <si>
-    <t>29May-October1992</t>
-  </si>
-  <si>
-    <t>30June-November1992</t>
-  </si>
-  <si>
-    <t>31July-December1992</t>
-  </si>
-  <si>
-    <t>32August1992-January1993</t>
-  </si>
-  <si>
-    <t>33September1992-February1993</t>
-  </si>
-  <si>
-    <t>34October1992-March1993</t>
-  </si>
-  <si>
-    <t>35November1992-April1993</t>
-  </si>
-  <si>
-    <t>36December1992-May1993</t>
-  </si>
-  <si>
-    <t>37January1993-June1993</t>
-  </si>
-  <si>
-    <t>38February1993-July1993</t>
-  </si>
-  <si>
-    <t>39March1993-August1993</t>
-  </si>
-  <si>
-    <t>40April1993-September1993</t>
-  </si>
-  <si>
-    <t>41May1993-October1993</t>
-  </si>
-  <si>
-    <t>42June1993-November1993</t>
-  </si>
-  <si>
-    <t>43July1993-Dec.1993</t>
-  </si>
-  <si>
-    <t>44August1993-January1994</t>
-  </si>
-  <si>
-    <t>45September1993-February1994</t>
-  </si>
-  <si>
-    <t>46October1993-March1994</t>
-  </si>
-  <si>
-    <t>47November1993-April1994</t>
-  </si>
-  <si>
-    <t>48December1993-May1994</t>
-  </si>
-  <si>
-    <t>49January-June1994</t>
-  </si>
-  <si>
-    <t>50February-July1994</t>
-  </si>
-  <si>
-    <t>51March-August1994</t>
-  </si>
-  <si>
-    <t>52April-September1994</t>
-  </si>
-  <si>
-    <t>53May-October1994</t>
-  </si>
-  <si>
-    <t>54June-November1994</t>
-  </si>
-  <si>
-    <t>55July-December1994</t>
-  </si>
-  <si>
-    <t>56August1994-January1995</t>
-  </si>
-  <si>
-    <t>57September1994-Febuary1995</t>
-  </si>
-  <si>
-    <t>58October1994-March1995</t>
-  </si>
-  <si>
-    <t>59November1994-April1995</t>
-  </si>
-  <si>
-    <t>60December1994-May1995</t>
-  </si>
-  <si>
-    <t>61January1995-June1995</t>
-  </si>
-  <si>
-    <t>62Febuary-July1995</t>
-  </si>
-  <si>
-    <t>63March-August1995</t>
-  </si>
-  <si>
-    <t>64April1995-September1995</t>
-  </si>
-  <si>
-    <t>65May-October1995</t>
-  </si>
-  <si>
-    <t>66June-November1995</t>
-  </si>
-  <si>
-    <t>67July1995-December1995</t>
-  </si>
-  <si>
-    <t>68August1995-January1996</t>
-  </si>
-  <si>
-    <t>69September1995-February1996</t>
-  </si>
-  <si>
-    <t>70October1995-March1996</t>
-  </si>
-  <si>
-    <t>71November1995-April1996</t>
-  </si>
-  <si>
-    <t>72December1995-May1996</t>
-  </si>
-  <si>
-    <t>73January-June1996</t>
-  </si>
-  <si>
-    <t>74February-July1996</t>
-  </si>
-  <si>
-    <t>75March-August1996</t>
-  </si>
-  <si>
-    <t>76April-September1996</t>
-  </si>
-  <si>
-    <t>77May-October1996</t>
-  </si>
-  <si>
-    <t>78June-November1996</t>
-  </si>
-  <si>
-    <t>79July-December1996</t>
-  </si>
-  <si>
-    <t>80August1996-January1997</t>
-  </si>
-  <si>
-    <t>81September1996-February1997</t>
-  </si>
-  <si>
-    <t>82October1996-March1997</t>
-  </si>
-  <si>
-    <t>83November1996-April1997</t>
-  </si>
-  <si>
-    <t>84December1996-May1997</t>
-  </si>
-  <si>
-    <t>85January-June1997</t>
-  </si>
-  <si>
-    <t>86February-July1997</t>
-  </si>
-  <si>
-    <t>87March-August1997</t>
-  </si>
-  <si>
-    <t>88April-September1997</t>
-  </si>
-  <si>
-    <t>89May-October1997</t>
-  </si>
-  <si>
-    <t>90June-November1997</t>
-  </si>
-  <si>
-    <t>91July-December1997</t>
-  </si>
-  <si>
-    <t>92August1997-January1998</t>
-  </si>
-  <si>
-    <t>93September1997-February1998</t>
-  </si>
-  <si>
-    <t>94October1997-March1998</t>
-  </si>
-  <si>
-    <t>95November1997-April1998</t>
-  </si>
-  <si>
-    <t>96December1997-May1998</t>
-  </si>
-  <si>
-    <t>97January-June1998</t>
-  </si>
-  <si>
-    <t>98February-July1998</t>
-  </si>
-  <si>
-    <t>99March-August1998</t>
-  </si>
-  <si>
-    <t>100April-September1998</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>PROS</t>
-  </si>
-  <si>
-    <t>DARTS</t>
-  </si>
-  <si>
-    <t>DJIA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t xml:space="preserve">contest_period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July-December1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1990-January1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1990-February1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1990-March1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1990-April1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1990-May1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July-December1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1991-January1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1991-February1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1991-March1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1991-April1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1991-May1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July-December1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1992-January1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1992-February1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1992-March1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1992-April1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1992-May1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January1993-June1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February1993-July1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March1993-August1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April1993-September1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May1993-October1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June1993-November1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July1993-Dec.1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1993-January1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1993-February1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1993-March1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1993-April1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1993-May1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July-December1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1994-January1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1994-Febuary1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1994-March1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1994-April1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1994-May1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January1995-June1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Febuary-July1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April1995-September1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July1995-December1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1995-January1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1995-February1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1995-March1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1995-April1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1995-May1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July-December1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1996-January1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1996-February1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1996-March1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1996-April1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1996-May1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May-October1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June-November1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July-December1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August1997-January1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September1997-February1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October1997-March1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November1997-April1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December1997-May1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January-June1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February-July1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March-August1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April-September1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,7 +351,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -372,14 +369,295 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -399,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>12.7</v>
@@ -407,10 +685,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>26.4</v>
@@ -418,10 +696,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>2.5</v>
@@ -429,21 +707,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>-37.8</v>
@@ -451,10 +729,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>-33.3</v>
@@ -462,10 +740,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>-10.2</v>
@@ -473,10 +751,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>-20.3</v>
@@ -484,10 +762,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>38.9</v>
@@ -495,10 +773,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>20.2</v>
@@ -506,10 +784,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>50.6</v>
@@ -517,10 +795,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>66.9</v>
@@ -528,10 +806,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>7.5</v>
@@ -539,10 +817,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>17.5</v>
@@ -550,10 +828,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>39.6</v>
@@ -561,10 +839,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>15.6</v>
@@ -572,10 +850,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>12.4</v>
@@ -583,21 +861,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>12.3</v>
@@ -605,10 +883,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>39.3</v>
@@ -616,10 +894,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>51.2</v>
@@ -627,10 +905,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
         <v>25.2</v>
@@ -638,10 +916,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
         <v>-3.3</v>
@@ -649,10 +927,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>7.7</v>
@@ -660,32 +938,32 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>-21.0</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>-2.5</v>
@@ -693,10 +971,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>-19.6</v>
@@ -704,10 +982,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>6.3</v>
@@ -715,10 +993,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
         <v>-5.1</v>
@@ -726,10 +1004,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
         <v>14.1</v>
@@ -737,10 +1015,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
         <v>15.6</v>
@@ -748,10 +1026,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>-26.7</v>
@@ -759,10 +1037,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>25.2</v>
@@ -770,10 +1048,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
         <v>-13.9</v>
@@ -781,10 +1059,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
         <v>27.9</v>
@@ -792,10 +1070,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
         <v>-6.6</v>
@@ -803,10 +1081,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
         <v>29.1</v>
@@ -814,10 +1092,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
         <v>0.3</v>
@@ -825,10 +1103,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
         <v>2.6</v>
@@ -836,21 +1114,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
         <v>-7.4</v>
@@ -858,10 +1136,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
         <v>2.2</v>
@@ -869,10 +1147,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
         <v>27.8</v>
@@ -880,10 +1158,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
         <v>3.7</v>
@@ -891,10 +1169,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
         <v>4.7</v>
@@ -902,10 +1180,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
         <v>5.4</v>
@@ -913,10 +1191,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
         <v>-9.5</v>
@@ -924,10 +1202,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
         <v>-13.1</v>
@@ -935,21 +1213,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
         <v>28.4</v>
@@ -957,10 +1235,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
         <v>10.6</v>
@@ -968,10 +1246,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>27.2</v>
@@ -979,21 +1257,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>37.0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
         <v>-15.8</v>
@@ -1001,10 +1279,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C57" t="n">
         <v>20.4</v>
@@ -1012,10 +1290,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
         <v>5.4</v>
@@ -1023,10 +1301,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
         <v>-14.8</v>
@@ -1034,10 +1312,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
         <v>12.1</v>
@@ -1045,10 +1323,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
         <v>10.8</v>
@@ -1056,10 +1334,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
         <v>72.7</v>
@@ -1067,10 +1345,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
         <v>30.5</v>
@@ -1078,10 +1356,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
         <v>26.7</v>
@@ -1089,21 +1367,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>75.0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
         <v>12.6</v>
@@ -1111,32 +1389,32 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
         <v>28.1</v>
@@ -1144,10 +1422,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>15.1</v>
@@ -1155,10 +1433,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
         <v>1.5</v>
@@ -1166,10 +1444,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
         <v>10.8</v>
@@ -1177,21 +1455,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
         <v>-9.2</v>
@@ -1199,10 +1477,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
         <v>-8.6</v>
@@ -1210,10 +1488,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
         <v>31.7</v>
@@ -1221,10 +1499,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
         <v>8.7</v>
@@ -1232,21 +1510,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>7.0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
         <v>5.1</v>
@@ -1254,10 +1532,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
         <v>41.2</v>
@@ -1265,10 +1543,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
         <v>7.7</v>
@@ -1276,10 +1554,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
         <v>47.6</v>
@@ -1287,21 +1565,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
         <v>-13.6</v>
@@ -1309,10 +1587,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
         <v>10.5</v>
@@ -1320,10 +1598,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C86" t="n">
         <v>20.2</v>
@@ -1331,10 +1609,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
         <v>29.3</v>
@@ -1342,10 +1620,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
         <v>20.7</v>
@@ -1353,10 +1631,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
         <v>50.3</v>
@@ -1364,10 +1642,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
         <v>38.4</v>
@@ -1375,10 +1653,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
         <v>-3.5</v>
@@ -1386,10 +1664,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
         <v>-14.1</v>
@@ -1397,10 +1675,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
         <v>14.3</v>
@@ -1408,10 +1686,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
         <v>10.9</v>
@@ -1419,10 +1697,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
         <v>5.5</v>
@@ -1430,10 +1708,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
         <v>17.4</v>
@@ -1441,21 +1719,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
         <v>24.4</v>
@@ -1463,10 +1741,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
         <v>39.3</v>
@@ -1474,10 +1752,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
         <v>-18.8</v>
@@ -1485,10 +1763,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
         <v>-20.1</v>
@@ -1496,1000 +1774,1000 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
       </c>
       <c r="C102" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8</v>
+        <v>-14.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>-14.3</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>-7.2</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" t="n">
-        <v>-16.3</v>
+        <v>-27.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" t="n">
-        <v>-27.4</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" t="n">
-        <v>-22.5</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" t="n">
-        <v>-37.3</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" t="n">
-        <v>11.2</v>
+        <v>72.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" t="n">
-        <v>72.9</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" t="n">
-        <v>16.6</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" t="n">
-        <v>28.7</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" t="n">
-        <v>44.8</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" t="n">
-        <v>71.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C118" t="n">
-        <v>2.8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C119" t="n">
-        <v>38.0</v>
+        <v>-23.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C120" t="n">
-        <v>-23.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C121" t="n">
-        <v>4.1</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" t="n">
-        <v>-14.0</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123" t="n">
-        <v>11.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C124" t="n">
-        <v>1.1</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125" t="n">
-        <v>-3.1</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C127" t="n">
-        <v>7.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C128" t="n">
-        <v>15.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C129" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C130" t="n">
-        <v>5.7</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C132" t="n">
-        <v>6.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C133" t="n">
-        <v>1.8</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134" t="n">
-        <v>-13.9</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C135" t="n">
-        <v>15.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C136" t="n">
-        <v>18.7</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C137" t="n">
-        <v>-3.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C138" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C139" t="n">
-        <v>4.7</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C140" t="n">
-        <v>-43.0</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C141" t="n">
-        <v>-5.6</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C142" t="n">
-        <v>-17.7</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C143" t="n">
-        <v>-4.9</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B144" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C144" t="n">
-        <v>-21.4</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C145" t="n">
-        <v>42.2</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" t="n">
-        <v>18.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C147" t="n">
-        <v>1.5</v>
+        <v>-9.2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C148" t="n">
-        <v>-9.2</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C149" t="n">
-        <v>-10.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C150" t="n">
-        <v>1.4</v>
+        <v>-8.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C151" t="n">
-        <v>-8.7</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B152" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C152" t="n">
-        <v>16.9</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B153" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C153" t="n">
-        <v>-4.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C154" t="n">
-        <v>20.6</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C155" t="n">
-        <v>10.3</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C156" t="n">
-        <v>-6.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C157" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C158" t="n">
-        <v>2.8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C159" t="n">
-        <v>11.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B160" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C160" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B161" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C161" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B162" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C162" t="n">
-        <v>9.0</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C163" t="n">
-        <v>11.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C164" t="n">
-        <v>16.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C165" t="n">
-        <v>11.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C166" t="n">
-        <v>3.3</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" t="n">
-        <v>17.6</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C168" t="n">
-        <v>23.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C169" t="n">
-        <v>18.7</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B170" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C170" t="n">
-        <v>-2.4</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C171" t="n">
-        <v>25.4</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C172" t="n">
-        <v>50.5</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C173" t="n">
-        <v>24.4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C174" t="n">
-        <v>11.5</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B175" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C175" t="n">
-        <v>-5.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B176" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C176" t="n">
-        <v>2.6</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B178" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C178" t="n">
-        <v>7.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B179" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C179" t="n">
-        <v>2.0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C180" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C181" t="n">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C182" t="n">
-        <v>4.7</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B183" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C183" t="n">
-        <v>24.6</v>
+        <v>-16.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B184" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C184" t="n">
-        <v>-16.9</v>
+        <v>-9.7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C185" t="n">
-        <v>-9.7</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B186" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C186" t="n">
-        <v>-21.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C187" t="n">
-        <v>18.0</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C188" t="n">
-        <v>-13.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B189" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B190" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C190" t="n">
-        <v>35.6</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C191" t="n">
-        <v>20.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C192" t="n">
         <v>6.5</v>
@@ -2497,285 +2775,285 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B193" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C193" t="n">
-        <v>6.5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B194" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C194" t="n">
-        <v>-9.0</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B195" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C195" t="n">
-        <v>-3.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C196" t="n">
-        <v>13.3</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B197" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C197" t="n">
-        <v>-10.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B198" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C198" t="n">
-        <v>28.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B199" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C199" t="n">
-        <v>3.2</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B200" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C200" t="n">
-        <v>-10.1</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C201" t="n">
-        <v>-20.4</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B202" t="s">
         <v>105</v>
       </c>
       <c r="C202" t="n">
-        <v>-34.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B203" t="s">
         <v>105</v>
       </c>
       <c r="C203" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C204" t="n">
-        <v>2.5</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C205" t="n">
-        <v>11.5</v>
+        <v>-9.2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C206" t="n">
-        <v>-2.3</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C207" t="n">
-        <v>-9.2</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C208" t="n">
-        <v>-8.5</v>
+        <v>-9.3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C209" t="n">
-        <v>-12.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C210" t="n">
-        <v>-9.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C212" t="n">
-        <v>11.0</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C213" t="n">
-        <v>15.8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B214" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C214" t="n">
-        <v>16.2</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B215" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C215" t="n">
-        <v>17.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C216" t="n">
-        <v>17.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B217" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C217" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C218" t="n">
         <v>4.4</v>
@@ -2783,951 +3061,919 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B219" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C219" t="n">
-        <v>3.4</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C220" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B221" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C221" t="n">
-        <v>-3.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C222" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B223" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C223" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B224" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C224" t="n">
-        <v>8.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B225" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C225" t="n">
-        <v>7.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B226" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C226" t="n">
-        <v>10.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C227" t="n">
-        <v>17.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B228" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C228" t="n">
-        <v>3.6</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B229" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C229" t="n">
-        <v>4.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B230" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B231" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B232" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C232" t="n">
-        <v>-5.0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C233" t="n">
-        <v>-2.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B234" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C234" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B235" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B236" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C236" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B237" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C237" t="n">
-        <v>9.0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B238" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C238" t="n">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B239" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C239" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B240" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C240" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B241" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C241" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B242" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C242" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B243" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C243" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B244" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C244" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B245" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C245" t="n">
-        <v>4.9</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C246" t="n">
-        <v>8.0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C247" t="n">
-        <v>11.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B248" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C248" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B249" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C249" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B250" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C250" t="n">
-        <v>0.5</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B251" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C251" t="n">
-        <v>1.3</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B252" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C252" t="n">
-        <v>-6.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B253" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C253" t="n">
-        <v>-5.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C254" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B255" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C255" t="n">
-        <v>4.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B256" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C256" t="n">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B258" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C258" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B259" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C259" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B260" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C260" t="n">
-        <v>3.2</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B261" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C261" t="n">
-        <v>7.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B262" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C262" t="n">
-        <v>12.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B263" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C263" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B264" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C264" t="n">
-        <v>16.0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C265" t="n">
-        <v>19.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B266" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C266" t="n">
-        <v>15.3</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B267" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C267" t="n">
-        <v>14.0</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B268" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C268" t="n">
-        <v>8.2</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B269" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C269" t="n">
-        <v>13.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B270" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C270" t="n">
-        <v>9.3</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B271" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C271" t="n">
-        <v>15.0</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B272" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C272" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B273" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C273" t="n">
-        <v>18.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B274" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C274" t="n">
-        <v>14.8</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B275" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C275" t="n">
-        <v>9.0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B276" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C276" t="n">
-        <v>10.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B277" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C277" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B278" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C278" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" t="n">
-        <v>5.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B280" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C280" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C281" t="n">
-        <v>15.1</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C282" t="n">
-        <v>15.5</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C283" t="n">
-        <v>19.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B284" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C284" t="n">
-        <v>20.1</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B285" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C285" t="n">
-        <v>9.6</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B286" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C286" t="n">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B287" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C287" t="n">
-        <v>13.3</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B288" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C288" t="n">
-        <v>16.2</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B289" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C289" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B290" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C290" t="n">
-        <v>8.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B291" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C291" t="n">
-        <v>20.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B292" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C292" t="n">
-        <v>3.0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B293" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C293" t="n">
-        <v>3.8</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B294" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B295" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B296" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C296" t="n">
-        <v>10.7</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B297" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C297" t="n">
-        <v>7.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B298" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C298" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B299" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C299" t="n">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B300" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C300" t="n">
-        <v>15.0</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B301" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C301" t="n">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>101</v>
-      </c>
-      <c r="B302" t="s">
-        <v>106</v>
-      </c>
-      <c r="C302" t="n">
-        <v>-13.1</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>102</v>
-      </c>
-      <c r="B303" t="s">
-        <v>106</v>
-      </c>
-      <c r="C303" t="n">
         <v>-11.8</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>103</v>
-      </c>
-      <c r="B304" t="s">
-        <v>106</v>
-      </c>
-      <c r="C304" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>